--- a/코딩/API 목록.xlsx
+++ b/코딩/API 목록.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\코딩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAD34CF-D113-4D46-A389-35DD6AE0A2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917F9C60-8846-4F73-9BB4-F088BD0290AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{E17AB242-519B-44EE-98FE-3C662694CEA9}"/>
+    <workbookView xWindow="28665" yWindow="-3285" windowWidth="38670" windowHeight="21270" activeTab="1" xr2:uid="{E17AB242-519B-44EE-98FE-3C662694CEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>현재 시간에 맞는 조수간만차 조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -213,10 +214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>선물함(우편함) 물품 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>선물함(우편함) 물품 수령</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -290,13 +287,161 @@
   <si>
     <t>유저 경험치(experience) 변경 -&gt; 경험치, 레벨 반환</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory, inventory_type, user_equip, user_fish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 인벤토리 목록 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 목록에서 물고기 정보 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 목록에서 채비 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_equip, user_upgrade_equip, equip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 가능한 아이템 강화하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_current_place, map, user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적지 결정 후 출항하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 채비 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 변경 - 낚싯대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 변경 - 낚싯줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 변경 - 릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 변경 - 낚시바늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 변경 - 미끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 변경 - 추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish, user_fish, equip_map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적지에서 물고기 잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 도중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_boat, map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산(잡은 물고기 목록 보여주기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_fish_auction, user_fish_cost, user_fish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 후 팔린 물고기 가격 및 주간 매매 결과 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_weather, tide, wind_direction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 날씨 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어류 도감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_book</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_fish, user_book, book_prize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감 정리, 도감 횟수 만족 시 상품 증정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보로롱24호 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료 채우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보로롱24호 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보로롱24호 내구도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간 매매 결과 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +479,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -363,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,6 +535,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -686,470 +856,958 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DE99F0-ADE8-4659-952B-97FABE7ED25B}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="2" width="132" customWidth="1"/>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="132" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>22</v>
       </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>28</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>29</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>30</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>31</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>32</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>33</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>34</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>35</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="D63" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F81C52A-1790-4D0B-BFAC-9FEFB00B3A15}">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
+    <col min="3" max="3" width="67" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>26</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/코딩/API 목록.xlsx
+++ b/코딩/API 목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\코딩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917F9C60-8846-4F73-9BB4-F088BD0290AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2CD5E7-E0BB-429C-96B7-977269DEFB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-3285" windowWidth="38670" windowHeight="21270" activeTab="1" xr2:uid="{E17AB242-519B-44EE-98FE-3C662694CEA9}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="1" xr2:uid="{E17AB242-519B-44EE-98FE-3C662694CEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/코딩/API 목록.xlsx
+++ b/코딩/API 목록.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\코딩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2CD5E7-E0BB-429C-96B7-977269DEFB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3FD844-B403-4F2B-BAAC-8B69D89A0025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="1" xr2:uid="{E17AB242-519B-44EE-98FE-3C662694CEA9}"/>
+    <workbookView xWindow="11745" yWindow="735" windowWidth="12015" windowHeight="15165" xr2:uid="{E17AB242-519B-44EE-98FE-3C662694CEA9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,184 +35,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
-  <si>
-    <t>현재 시간에 맞는 조수간만차 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조수간만차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_upgrade_item 중 rod, line, reel의 경우 업그레이드 가능. 부품 조각의 개수를 만족할 경우 업그레이드 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 boat 업그레이드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_upgrade_item, rod, line, reel, user_boat, boat_level, piece</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 경매 gold 금액 가져올때, order by desc로 가져오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하루에 한번씩 신선함 깎기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어종별 시세가 다르고 이를 기록하기(경매 시 얼마에 어떤 크기의 물고기가 팔려나갔는지), user의 level이 높을수록 잘 팔려나간다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매 후 user_fish에 있는 fish 삭제하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매 후 fish_auction gold 값에 더해준다, 만약 sell_date의 week가 현재 week와 다를 경우 gold값으로 갱신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_fish_auction, user_fish, user_fish_cost, inventory, user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>경매하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>보트 레벨이 올라가면, boat_level에 맞춰서 user_boat 정보 갱신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 보트 정보 보여주기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>user_boat, boat_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>낚싯배 내구도 수리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_fish 중 정산하지 않은 fish 목록 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_fish, user_boat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>입항하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>낚시 성공 시, user_fish, inventory(inventory_type = 잡은 것에 알맞게)에 등록하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 후 user가 장착한 item의 내구도 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저가 출항한 위치의 물고기 목록 + 부품조각 조회(유저가 내린 낚시줄의 길이도 고려할 것)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish, user_fish, user_current_item, piece, item_map, inventory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>낚시하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(날씨와 조수간만차 정보를 바탕으로 적절한 채비를 선택해야 한다는데, 기준을 잘 모르겠음..)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저가 가지고 있는 아이템으로 채비 장착</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 장착하고 있는 채비 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_current_item, inventory, user_item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>채비하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>일정 시간마다 user_boat의 durability(내구도) 감소시키기, map의 reduced_durability를 기반으로, 만약 내구도가 0이 되면 입항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈 수 있을 경우 user_current_place의 map_id, boat의 fuel 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망하는 장소에 가기 위한 조건을 만족하는지 체크(연료, 레벨 제한), 연료가 0이 되면 입항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>map, user_boat, user_current_place</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>출항하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상점에서 물건 구입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>store, user, asset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정해진 도감 등록수를 채우면 보상 지급</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도감에 등록된 물고기 목록 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 포획 후 입항 시, 어류 도감에 등록하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_book, book_prize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어류도감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>선물함(우편함) 물품 수령</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -229,46 +76,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유저 아이템 획득 시 등록하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 인벤토리 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventory, inventory_type, user_item, rod, line, reel, hook, sinker, bait</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>인벤토리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>날씨 정보 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_weather</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 피로도(fatigue) 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 진주(pearl) 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 골드(gold) 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인(유저 계정 정보 보여주기)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -282,10 +93,6 @@
   </si>
   <si>
     <t>유저</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 경험치(experience) 변경 -&gt; 경험치, 레벨 반환</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -526,15 +333,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -855,580 +660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DE99F0-ADE8-4659-952B-97FABE7ED25B}">
-  <dimension ref="A1:D63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="32.25" customWidth="1"/>
-    <col min="3" max="3" width="132" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>14</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>15</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>16</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>19</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>20</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>21</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>22</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>23</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>24</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>25</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>28</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>29</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>30</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>31</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>32</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>33</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>34</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>35</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F81C52A-1790-4D0B-BFAC-9FEFB00B3A15}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1438,15 +674,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
+      <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1455,20 +691,20 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1476,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1484,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1492,19 +728,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1512,19 +748,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>59</v>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1532,19 +768,19 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1552,19 +788,19 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1572,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1580,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1588,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1596,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1604,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1612,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1620,19 +856,19 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1640,19 +876,19 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1660,19 +896,19 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1680,7 +916,7 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1688,19 +924,19 @@
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1708,7 +944,7 @@
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1716,19 +952,19 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="3" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1736,19 +972,19 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="3" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1756,7 +992,7 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1764,7 +1000,7 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1772,19 +1008,19 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="3" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1793,7 +1029,7 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1802,7 +1038,7 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
